--- a/data/trans_bre/PER_DISPO_VERDE-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Estudios-trans_bre.xlsx
@@ -544,12 +544,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -562,12 +562,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 7,78</t>
+          <t>-9,08; 9,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 9,45</t>
+          <t>-9,93; 11,76</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 0,64</t>
+          <t>-6,43; 0,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 0,7</t>
+          <t>-7,17; 0,54</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 4,08</t>
+          <t>-4,54; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,84</t>
+          <t>-5,1; 4,35</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,97</t>
+          <t>-4,4; 0,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 1,13</t>
+          <t>-4,99; 1,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PER_DISPO_VERDE-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Estudios-trans_bre.xlsx
@@ -562,12 +562,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 9,31</t>
+          <t>-8,45; 9,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 11,76</t>
+          <t>-9,31; 11,36</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 0,47</t>
+          <t>-6,56; 0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 0,54</t>
+          <t>-7,29; 0,48</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,67</t>
+          <t>-5,02; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,35</t>
+          <t>-5,63; 4,67</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,95</t>
+          <t>-4,42; 1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,1</t>
+          <t>-4,97; 1,19</t>
         </is>
       </c>
     </row>
